--- a/gamedata/battle5/heros.xlsx
+++ b/gamedata/battle5/heros.xlsx
@@ -412,6 +412,7 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -442,6 +443,15 @@
       <c r="I1" s="1" t="str">
         <v>atkdistance</v>
       </c>
+      <c r="J1" s="1" t="str">
+        <v>place</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <v>info</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <v>skills</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -471,6 +481,15 @@
       <c r="I2" s="1">
         <v>1</v>
       </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <v>标准的T，偏防，有一定的输出能力，能用嘲讽吸引火力</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <v>9000001|</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -500,6 +519,15 @@
       <c r="I3" s="1">
         <v>99</v>
       </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <v>标准法师，魔法DPS，AOE，偏脆</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <v>9000001|</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -529,6 +557,15 @@
       <c r="I4" s="1">
         <v>4</v>
       </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <v>标准奶，唯一的回复职业，辅助</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <v>9000001|</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -558,6 +595,15 @@
       <c r="I5" s="1">
         <v>99</v>
       </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <v>标准弓，物理DPS，AOE，偏脆</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <v>9000001|</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -587,6 +633,15 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <v>标准刺客，物理DPS，单体，高暴击高闪避</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <v>9000001|</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -615,6 +670,15 @@
       </c>
       <c r="I7" s="1">
         <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <v>标准圣骑士，偏防，单体自增强，有无敌</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <v>9000001|</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/battle5/heros.xlsx
+++ b/gamedata/battle5/heros.xlsx
@@ -411,8 +411,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="9"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/gamedata/battle5/heros.xlsx
+++ b/gamedata/battle5/heros.xlsx
@@ -462,6 +462,15 @@
       <c r="L1" s="1" t="str">
         <v>skills</v>
       </c>
+      <c r="M1" s="1" t="str">
+        <v>findfunc</v>
+      </c>
+      <c r="N1" s="1" t="str">
+        <v>findvals</v>
+      </c>
+      <c r="O1" s="1" t="str">
+        <v>findstrvals</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -500,6 +509,12 @@
       <c r="L2" s="1" t="str">
         <v>9000001|</v>
       </c>
+      <c r="M2" s="1" t="str">
+        <v>findnear</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <v>1|</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -538,6 +553,12 @@
       <c r="L3" s="1" t="str">
         <v>9000001|</v>
       </c>
+      <c r="M3" s="1" t="str">
+        <v>findnear</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <v>1|</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -576,6 +597,12 @@
       <c r="L4" s="1" t="str">
         <v>9000001|</v>
       </c>
+      <c r="M4" s="1" t="str">
+        <v>findnear</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <v>1|</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -614,6 +641,12 @@
       <c r="L5" s="1" t="str">
         <v>9000001|</v>
       </c>
+      <c r="M5" s="1" t="str">
+        <v>findnear</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <v>1|</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -652,6 +685,12 @@
       <c r="L6" s="1" t="str">
         <v>9000001|</v>
       </c>
+      <c r="M6" s="1" t="str">
+        <v>findfar</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <v>1|</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -689,6 +728,12 @@
       </c>
       <c r="L7" s="1" t="str">
         <v>9000001|</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <v>findnear</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <v>1|</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/battle5/heros.xlsx
+++ b/gamedata/battle5/heros.xlsx
@@ -47,6 +47,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -507,7 +508,7 @@
         <v>标准的T，偏防，有一定的输出能力，能用嘲讽吸引火力</v>
       </c>
       <c r="L2" s="1" t="str">
-        <v>9000001|</v>
+        <v>900001|</v>
       </c>
       <c r="M2" s="1" t="str">
         <v>findnear</v>
@@ -551,7 +552,7 @@
         <v>标准法师，魔法DPS，AOE，偏脆</v>
       </c>
       <c r="L3" s="1" t="str">
-        <v>9000001|</v>
+        <v>900001|</v>
       </c>
       <c r="M3" s="1" t="str">
         <v>findnear</v>
@@ -595,7 +596,7 @@
         <v>标准奶，唯一的回复职业，辅助</v>
       </c>
       <c r="L4" s="1" t="str">
-        <v>9000001|</v>
+        <v>900001|</v>
       </c>
       <c r="M4" s="1" t="str">
         <v>findnear</v>
@@ -639,7 +640,7 @@
         <v>标准弓，物理DPS，AOE，偏脆</v>
       </c>
       <c r="L5" s="1" t="str">
-        <v>9000001|</v>
+        <v>900001|</v>
       </c>
       <c r="M5" s="1" t="str">
         <v>findnear</v>
@@ -683,7 +684,7 @@
         <v>标准刺客，物理DPS，单体，高暴击高闪避</v>
       </c>
       <c r="L6" s="1" t="str">
-        <v>9000001|</v>
+        <v>900001|</v>
       </c>
       <c r="M6" s="1" t="str">
         <v>findfar</v>
@@ -727,7 +728,7 @@
         <v>标准圣骑士，偏防，单体自增强，有无敌</v>
       </c>
       <c r="L7" s="1" t="str">
-        <v>9000001|</v>
+        <v>900001|</v>
       </c>
       <c r="M7" s="1" t="str">
         <v>findnear</v>

--- a/gamedata/battle5/heros.xlsx
+++ b/gamedata/battle5/heros.xlsx
@@ -423,7 +423,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -508,7 +508,7 @@
         <v>标准的T，偏防，有一定的输出能力，能用嘲讽吸引火力</v>
       </c>
       <c r="L2" s="1" t="str">
-        <v>900001|</v>
+        <v>900001|100001</v>
       </c>
       <c r="M2" s="1" t="str">
         <v>findnear</v>
